--- a/Capstone2_task.xlsx
+++ b/Capstone2_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BC_65\API\BC65_Capstone2_Nhom1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FE388D-73C7-4423-9770-887EC689A74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6574C72E-80A6-4D19-8BB5-F5FB1E451B07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1188,7 @@
         <v>45394</v>
       </c>
       <c r="D18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>14</v>
@@ -1200,7 +1200,7 @@
         <v>45397</v>
       </c>
       <c r="H18" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>29</v>
@@ -1220,7 +1220,7 @@
         <v>45395</v>
       </c>
       <c r="D19" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>14</v>
@@ -1232,7 +1232,7 @@
         <v>45397</v>
       </c>
       <c r="H19" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>29</v>
@@ -1252,7 +1252,7 @@
         <v>45396</v>
       </c>
       <c r="D20" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>14</v>
@@ -1264,7 +1264,7 @@
         <v>45397</v>
       </c>
       <c r="H20" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>29</v>
